--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T15:56:43+00:00</t>
+    <t>2022-11-25T11:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:36:47+00:00</t>
+    <t>2022-11-25T11:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:53:22+00:00</t>
+    <t>2022-11-25T11:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:57:58+00:00</t>
+    <t>2022-11-26T17:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-26T17:48:47+00:00</t>
+    <t>2022-11-28T10:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T10:19:29+00:00</t>
+    <t>2022-11-28T11:36:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:36:40+00:00</t>
+    <t>2022-11-28T11:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:42:39+00:00</t>
+    <t>2022-11-28T13:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:17:59+00:00</t>
+    <t>2022-11-28T13:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:54:36+00:00</t>
+    <t>2022-11-28T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:10:20+00:00</t>
+    <t>2022-11-29T11:19:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/Ingredient-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/Ingredient-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:19:39+00:00</t>
+    <t>2022-12-01T10:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -485,7 +485,7 @@
     <t>Ingredient.for</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/MedicinalProductDefinition-uv-epi|http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/AdministrableProductDefinition-uv-epi|http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/ManufacturedItemDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/MedicinalProductDefinition-uv-epi|http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/AdministrableProductDefinition-uv-epi|http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/ManufacturedItemDefinition-uv-epi)
 </t>
   </si>
   <si>
@@ -636,7 +636,7 @@
     <t>Ingredient.manufacturer.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/Organization-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/Organization-uv-epi)
 </t>
   </si>
   <si>
@@ -677,7 +677,7 @@
     <t>A code or full resource that represents the ingredient's substance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/substance</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/substance</t>
   </si>
   <si>
     <t>Substance.Substance</t>
@@ -759,7 +759,7 @@
     <t>A code that indicates if the strength is, for example, based on the ingredient substance as stated or on the substance base (when the ingredient is a salt).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/roleClassIngredientEntity</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/roleClassIngredientEntity</t>
   </si>
   <si>
     <t>Ingredient.substance.strength.measurementPoint</t>
@@ -1189,7 +1189,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="107.234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.86328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.7109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-Ballot</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:11:45+00:00</t>
+    <t>2022-12-02T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T14:16:24+00:00</t>
+    <t>2022-12-09T15:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="273">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T15:04:58+00:00</t>
+    <t>2022-12-14T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -436,7 +439,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-ballot/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -1156,7 +1159,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL47"/>
+  <dimension ref="A1:AM47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1166,43 +1169,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="64.1953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="64.1953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="142.5390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="107.234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.7109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="64.1953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="107.234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.7109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="64.1953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="51.97265625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="51.97265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1320,136 +1323,142 @@
       <c r="AL1" t="s" s="1">
         <v>72</v>
       </c>
+      <c r="AM1" t="s" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AG2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>79</v>
       </c>
+      <c r="AM2" t="s" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>83</v>
@@ -1463,104 +1472,107 @@
       <c r="M3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>90</v>
@@ -1568,105 +1580,108 @@
       <c r="L4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>96</v>
@@ -1677,104 +1692,107 @@
       <c r="M5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM5" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>102</v>
@@ -1785,31 +1803,31 @@
       <c r="M6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>106</v>
@@ -1818,71 +1836,74 @@
         <v>107</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>112</v>
@@ -1893,104 +1914,107 @@
       <c r="M7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>120</v>
@@ -2001,104 +2025,107 @@
       <c r="M8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>128</v>
@@ -2109,214 +2136,220 @@
       <c r="M9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>140</v>
@@ -2324,108 +2357,111 @@
       <c r="L11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>143</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>146</v>
@@ -2433,31 +2469,31 @@
       <c r="M12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
         <v>149</v>
@@ -2466,71 +2502,74 @@
         <v>150</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>153</v>
@@ -2538,105 +2577,108 @@
       <c r="L13" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>157</v>
@@ -2644,136 +2686,139 @@
       <c r="L14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
         <v>165</v>
@@ -2782,177 +2827,183 @@
         <v>166</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>172</v>
@@ -2960,107 +3011,110 @@
       <c r="L17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="Q17" t="s" s="2">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>178</v>
@@ -3068,105 +3122,108 @@
       <c r="L18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>182</v>
@@ -3174,641 +3231,659 @@
       <c r="L19" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>142</v>
+        <v>74</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>128</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>142</v>
+        <v>74</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>143</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>191</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="Y22" t="s" s="2">
         <v>197</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AL23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M24" s="2"/>
+      <c r="M24" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>182</v>
@@ -3816,323 +3891,332 @@
       <c r="L25" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>142</v>
+        <v>74</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>143</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>128</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>142</v>
+        <v>74</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>143</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>191</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>211</v>
@@ -4140,209 +4224,215 @@
       <c r="L28" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X28" s="2"/>
-      <c r="Y28" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M29" s="2"/>
+      <c r="M29" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>182</v>
@@ -4350,323 +4440,332 @@
       <c r="L30" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M30" s="2"/>
+      <c r="M30" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>142</v>
+        <v>74</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>143</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>128</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>142</v>
+        <v>74</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>191</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>224</v>
@@ -4674,845 +4773,869 @@
       <c r="L33" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M33" s="2"/>
+      <c r="M33" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M34" s="2"/>
+      <c r="M34" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>227</v>
+        <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M35" s="2"/>
+      <c r="M35" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M36" s="2"/>
+      <c r="M36" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M37" s="2"/>
+      <c r="M37" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X37" s="2"/>
-      <c r="Y37" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M38" s="2"/>
+      <c r="M38" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M39" s="2"/>
+      <c r="M39" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="Y39" t="s" s="2">
         <v>249</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>73</v>
+        <v>250</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M40" s="2"/>
+      <c r="M40" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>254</v>
+        <v>94</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>182</v>
@@ -5520,427 +5643,439 @@
       <c r="L41" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M41" s="2"/>
+      <c r="M41" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>142</v>
+        <v>74</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>143</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>128</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>142</v>
+        <v>74</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>143</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>191</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M44" s="2"/>
+      <c r="M44" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X44" s="2"/>
-      <c r="Y44" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>261</v>
+        <v>94</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>73</v>
+        <v>262</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>263</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>264</v>
@@ -5948,289 +6083,298 @@
       <c r="L45" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M45" s="2"/>
+      <c r="M45" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>262</v>
+        <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>266</v>
+        <v>94</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AG46" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>269</v>
+        <v>94</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>73</v>
+        <v>270</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M47" s="2"/>
+      <c r="M47" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="Y47" t="s" s="2">
         <v>249</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>73</v>
+        <v>250</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>270</v>
+        <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>271</v>
+        <v>94</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T14:15:20+00:00</t>
+    <t>2022-12-14T18:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T18:14:38+00:00</t>
+    <t>2022-12-16T11:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:20:12+00:00</t>
+    <t>2022-12-16T11:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:44+00:00</t>
+    <t>2022-12-17T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -439,7 +439,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-ballot/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -482,7 +482,7 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Ingredient.for</t>
@@ -630,7 +630,7 @@
     <t>The way in which this manufacturer is associated with the ingredient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Ingredient.Manufacturer / Establishment (Organisation)</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T10:20:03+00:00</t>
+    <t>2022-12-17T12:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:06:32+00:00</t>
+    <t>2022-12-17T12:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:26:35+00:00</t>
+    <t>2022-12-19T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T17:15:26+00:00</t>
+    <t>2022-12-20T15:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T15:01:34+00:00</t>
+    <t>2022-12-21T15:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:08:00+00:00</t>
+    <t>2022-12-21T16:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:19:38+00:00</t>
+    <t>2022-12-22T16:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="274">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T16:01:13+00:00</t>
+    <t>2023-01-13T20:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>An ingredient of a manufactured item or pharmaceutical product</t>
@@ -1355,13 +1359,13 @@
         <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1430,18 +1434,18 @@
         <v>28</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1452,7 +1456,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1461,19 +1465,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1523,13 +1527,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1549,10 +1553,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1563,7 +1567,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -1572,16 +1576,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1632,19 +1636,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -1658,10 +1662,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1672,28 +1676,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1743,19 +1747,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -1769,10 +1773,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1783,7 +1787,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1795,16 +1799,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1830,13 +1834,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -1854,19 +1858,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -1880,21 +1884,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -1906,16 +1910,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1965,19 +1969,19 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
@@ -1986,19 +1990,19 @@
         <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2017,16 +2021,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2076,7 +2080,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2097,19 +2101,19 @@
         <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2128,16 +2132,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2187,7 +2191,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2199,7 +2203,7 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
@@ -2208,19 +2212,19 @@
         <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2233,25 +2237,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2300,7 +2304,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2312,7 +2316,7 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
@@ -2321,15 +2325,15 @@
         <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2340,7 +2344,7 @@
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -2349,16 +2353,16 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2409,25 +2413,25 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -2435,10 +2439,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2446,31 +2450,31 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2496,13 +2500,13 @@
         <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
@@ -2520,22 +2524,22 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -2546,10 +2550,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2569,16 +2573,16 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2629,7 +2633,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2641,10 +2645,10 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -2655,10 +2659,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2666,10 +2670,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -2678,16 +2682,16 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2714,11 +2718,11 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -2736,22 +2740,22 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -2762,10 +2766,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2785,16 +2789,16 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2821,13 +2825,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -2845,7 +2849,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -2857,10 +2861,10 @@
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -2871,10 +2875,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2885,7 +2889,7 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2894,16 +2898,16 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2954,22 +2958,22 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
@@ -2980,10 +2984,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2994,7 +2998,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3003,16 +3007,16 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3020,7 +3024,7 @@
         <v>74</v>
       </c>
       <c r="Q17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>74</v>
@@ -3065,22 +3069,22 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
@@ -3091,10 +3095,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3114,16 +3118,16 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3174,7 +3178,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3186,10 +3190,10 @@
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -3200,10 +3204,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3214,7 +3218,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3226,13 +3230,13 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3283,13 +3287,13 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
@@ -3304,19 +3308,19 @@
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3335,16 +3339,16 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3394,7 +3398,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3406,7 +3410,7 @@
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
@@ -3415,19 +3419,19 @@
         <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3440,25 +3444,25 @@
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -3507,7 +3511,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3519,7 +3523,7 @@
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
@@ -3528,15 +3532,15 @@
         <v>74</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3547,7 +3551,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -3556,16 +3560,16 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3592,13 +3596,13 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -3616,22 +3620,22 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3642,10 +3646,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3653,10 +3657,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -3665,16 +3669,16 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3725,22 +3729,22 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -3751,10 +3755,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3762,10 +3766,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -3774,16 +3778,16 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3834,22 +3838,22 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -3860,10 +3864,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3874,7 +3878,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -3886,13 +3890,13 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3943,13 +3947,13 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>74</v>
@@ -3964,19 +3968,19 @@
         <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -3995,16 +3999,16 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4054,7 +4058,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4066,7 +4070,7 @@
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4075,19 +4079,19 @@
         <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4100,25 +4104,25 @@
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
@@ -4167,7 +4171,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4179,7 +4183,7 @@
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4188,15 +4192,15 @@
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4204,10 +4208,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4216,16 +4220,16 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4252,11 +4256,11 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -4274,22 +4278,22 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
@@ -4300,10 +4304,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4323,16 +4327,16 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4383,7 +4387,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4395,10 +4399,10 @@
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4409,10 +4413,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4423,7 +4427,7 @@
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4435,13 +4439,13 @@
         <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4492,13 +4496,13 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>74</v>
@@ -4513,19 +4517,19 @@
         <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4544,16 +4548,16 @@
         <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4603,7 +4607,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -4615,7 +4619,7 @@
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -4624,19 +4628,19 @@
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4649,25 +4653,25 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -4716,7 +4720,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -4728,7 +4732,7 @@
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -4737,15 +4741,15 @@
         <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4756,7 +4760,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -4765,16 +4769,16 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4825,22 +4829,22 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -4851,10 +4855,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4865,7 +4869,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -4874,16 +4878,16 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4934,22 +4938,22 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -4960,10 +4964,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4974,7 +4978,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -4983,16 +4987,16 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5043,22 +5047,22 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5069,10 +5073,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5083,7 +5087,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5092,16 +5096,16 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5152,22 +5156,22 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
@@ -5178,10 +5182,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5192,7 +5196,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5201,16 +5205,16 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5237,11 +5241,11 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5259,22 +5263,22 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5285,10 +5289,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5299,7 +5303,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5308,16 +5312,16 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5368,22 +5372,22 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -5394,10 +5398,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5417,16 +5421,16 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5453,13 +5457,13 @@
         <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
@@ -5477,7 +5481,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -5489,10 +5493,10 @@
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5503,10 +5507,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5526,16 +5530,16 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5586,7 +5590,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5598,10 +5602,10 @@
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5612,10 +5616,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5626,7 +5630,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -5638,13 +5642,13 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5695,13 +5699,13 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>74</v>
@@ -5716,19 +5720,19 @@
         <v>74</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -5747,16 +5751,16 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5806,7 +5810,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -5818,7 +5822,7 @@
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
@@ -5827,19 +5831,19 @@
         <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -5852,25 +5856,25 @@
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -5919,7 +5923,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -5931,7 +5935,7 @@
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
@@ -5940,15 +5944,15 @@
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5959,7 +5963,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -5968,16 +5972,16 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6004,11 +6008,11 @@
         <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
@@ -6026,22 +6030,22 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6052,10 +6056,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6063,10 +6067,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -6075,16 +6079,16 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6135,22 +6139,22 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6161,10 +6165,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6175,7 +6179,7 @@
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
@@ -6184,16 +6188,16 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6244,22 +6248,22 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6270,10 +6274,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6293,16 +6297,16 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6329,13 +6333,13 @@
         <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>74</v>
@@ -6353,7 +6357,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6365,10 +6369,10 @@
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T20:22:01+00:00</t>
+    <t>2023-01-14T01:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T01:22:25+00:00</t>
+    <t>2023-01-15T00:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15T00:37:24+00:00</t>
+    <t>2023-01-20T18:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T18:45:44+00:00</t>
+    <t>2023-01-21T15:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:50:48+00:00</t>
+    <t>2023-02-28T21:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="282">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T21:05:48+00:00</t>
+    <t>2023-04-05T09:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-snapshot3</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -228,10 +228,10 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
     <t>Mapping: IDMP Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
@@ -259,7 +259,7 @@
     <t>administrative.medication</t>
   </si>
   <si>
-    <t>Entity. Role, or Act</t>
+    <t>Entity, Role, or Act</t>
   </si>
   <si>
     <t>Ingredient.id</t>
@@ -320,7 +320,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of its narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -342,13 +342,13 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>IETF language tag</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>IETF language tag for a human language</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/all-languages|5.0.0</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -377,6 +377,10 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t xml:space="preserve">dom-6
+</t>
+  </si>
+  <si>
     <t>Act.text?</t>
   </si>
   <si>
@@ -403,6 +407,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>dom-2
+dom-4dom-3dom-5</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -420,7 +428,7 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -439,11 +447,11 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -462,12 +470,12 @@
     <t>The identifier(s) of this Ingredient that are assigned by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate.</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>Ingredient.status</t>
   </si>
   <si>
@@ -480,13 +488,10 @@
     <t>Allows filtering of ingredient that are appropriate for use versus not.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-snapshot3</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0</t>
   </si>
   <si>
     <t>Ingredient.for</t>
@@ -515,6 +520,9 @@
     <t>A classification of the ingredient identifying its purpose within the product, e.g. active, inactive.</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
     <t>http://terminology.hl7.org/ValueSet/v3-RoleClassIngredientEntity</t>
   </si>
   <si>
@@ -564,7 +572,24 @@
     <t>If this value is not present, there is no statement being made about whether this is an allergen or not. No inference can be made</t>
   </si>
   <si>
+    <t xml:space="preserve">ing-1
+</t>
+  </si>
+  <si>
     <t>Ingredient.Allergenic Indicator</t>
+  </si>
+  <si>
+    <t>Ingredient.comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>A place for providing any notes that are relevant to the component, e.g. removed during process, adjusted for loss on drying</t>
+  </si>
+  <si>
+    <t>A place for providing any notes that are relevant to the component, e.g. removed during process, adjusted for loss on drying.</t>
   </si>
   <si>
     <t>Ingredient.manufacturer</t>
@@ -596,10 +621,14 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>Ingredient.manufacturer.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -615,7 +644,7 @@
     <t>Extensions that cannot be ignored even if unrecognized</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -634,7 +663,7 @@
     <t>The way in which this manufacturer is associated with the ingredient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|5.0.0-snapshot3</t>
+    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|5.0.0</t>
   </si>
   <si>
     <t>Ingredient.Manufacturer / Establishment (Organisation)</t>
@@ -1163,7 +1192,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM47"/>
+  <dimension ref="A1:AM48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1207,8 +1236,8 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="51.97265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="51.97265625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1431,10 +1460,10 @@
         <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>81</v>
@@ -1978,7 +2007,7 @@
         <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>95</v>
@@ -1990,19 +2019,19 @@
         <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2021,16 +2050,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2080,7 +2109,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2089,7 +2118,7 @@
         <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>74</v>
@@ -2101,19 +2130,19 @@
         <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2132,16 +2161,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2191,7 +2220,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2203,7 +2232,7 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
@@ -2212,19 +2241,19 @@
         <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2243,19 +2272,19 @@
         <v>84</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2304,7 +2333,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2316,7 +2345,7 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
@@ -2325,15 +2354,15 @@
         <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2356,13 +2385,13 @@
         <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2413,7 +2442,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2428,10 +2457,10 @@
         <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -2439,10 +2468,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2468,13 +2497,13 @@
         <v>103</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2500,13 +2529,13 @@
         <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
@@ -2524,7 +2553,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>83</v>
@@ -2539,10 +2568,10 @@
         <v>95</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>74</v>
@@ -2550,10 +2579,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2576,13 +2605,13 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2633,7 +2662,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2648,10 +2677,10 @@
         <v>95</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
@@ -2659,10 +2688,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2685,13 +2714,13 @@
         <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2718,11 +2747,11 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -2740,7 +2769,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>83</v>
@@ -2755,10 +2784,10 @@
         <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>74</v>
@@ -2766,10 +2795,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2792,13 +2821,13 @@
         <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2825,13 +2854,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -2849,7 +2878,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -2864,10 +2893,10 @@
         <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -2875,10 +2904,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2901,13 +2930,13 @@
         <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2958,7 +2987,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -2973,10 +3002,10 @@
         <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -2984,10 +3013,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3010,13 +3039,13 @@
         <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3024,7 +3053,7 @@
         <v>74</v>
       </c>
       <c r="Q17" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>74</v>
@@ -3069,7 +3098,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3078,16 +3107,16 @@
         <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>74</v>
@@ -3095,10 +3124,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3109,7 +3138,7 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3118,16 +3147,16 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3178,13 +3207,13 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
@@ -3193,10 +3222,10 @@
         <v>95</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3204,10 +3233,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3218,7 +3247,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3227,16 +3256,16 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3287,47 +3316,47 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3339,17 +3368,15 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3398,19 +3425,19 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
@@ -3419,19 +3446,19 @@
         <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3444,26 +3471,24 @@
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3511,7 +3536,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3523,7 +3548,7 @@
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
@@ -3532,47 +3557,51 @@
         <v>74</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
       </c>
@@ -3596,13 +3625,13 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -3620,36 +3649,36 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3657,7 +3686,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>83</v>
@@ -3672,13 +3701,13 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3705,13 +3734,13 @@
         <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>74</v>
@@ -3729,10 +3758,10 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>83</v>
@@ -3744,10 +3773,10 @@
         <v>95</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
@@ -3755,10 +3784,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3781,13 +3810,13 @@
         <v>84</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3838,7 +3867,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>83</v>
@@ -3853,10 +3882,10 @@
         <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -3864,10 +3893,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3875,7 +3904,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>83</v>
@@ -3887,16 +3916,16 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3947,47 +3976,47 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -3999,17 +4028,15 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4058,19 +4085,19 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4079,19 +4106,19 @@
         <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4104,26 +4131,24 @@
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4171,7 +4196,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4183,7 +4208,7 @@
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4192,47 +4217,51 @@
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4256,11 +4285,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -4278,36 +4309,36 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4315,10 +4346,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4330,13 +4361,13 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4363,13 +4394,11 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4387,25 +4416,25 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>74</v>
@@ -4413,10 +4442,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4427,7 +4456,7 @@
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4436,16 +4465,16 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4496,47 +4525,47 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -4548,17 +4577,15 @@
         <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -4607,19 +4634,19 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -4628,19 +4655,19 @@
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4653,26 +4680,24 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
@@ -4720,7 +4745,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -4732,7 +4757,7 @@
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -4741,47 +4766,51 @@
         <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
@@ -4829,36 +4858,36 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4881,13 +4910,13 @@
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4938,7 +4967,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -4953,10 +4982,10 @@
         <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -4964,10 +4993,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4990,13 +5019,13 @@
         <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5047,7 +5076,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5062,10 +5091,10 @@
         <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -5073,10 +5102,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5099,13 +5128,13 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5156,7 +5185,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5171,10 +5200,10 @@
         <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
@@ -5182,10 +5211,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5208,13 +5237,13 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5241,11 +5270,13 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z37" t="s" s="2">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5263,7 +5294,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5278,10 +5309,10 @@
         <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
@@ -5289,10 +5320,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5315,13 +5346,13 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5348,13 +5379,11 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -5372,7 +5401,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5387,10 +5416,10 @@
         <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>74</v>
@@ -5398,10 +5427,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5412,7 +5441,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5424,13 +5453,13 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5457,37 +5486,37 @@
         <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="Z39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AA39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
@@ -5496,10 +5525,10 @@
         <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
@@ -5507,10 +5536,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5533,13 +5562,13 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5566,13 +5595,13 @@
         <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>74</v>
@@ -5590,7 +5619,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5605,10 +5634,10 @@
         <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>74</v>
@@ -5616,10 +5645,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5630,7 +5659,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -5639,16 +5668,16 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5699,47 +5728,47 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -5751,17 +5780,15 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -5810,19 +5837,19 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
@@ -5831,19 +5858,19 @@
         <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -5856,26 +5883,24 @@
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
@@ -5923,7 +5948,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -5935,7 +5960,7 @@
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
@@ -5944,47 +5969,51 @@
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6008,11 +6037,13 @@
         <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
@@ -6030,36 +6061,36 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6082,13 +6113,13 @@
         <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6115,13 +6146,11 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -6139,7 +6168,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>83</v>
@@ -6154,10 +6183,10 @@
         <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
@@ -6165,10 +6194,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6176,7 +6205,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>83</v>
@@ -6191,13 +6220,13 @@
         <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6248,10 +6277,10 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>83</v>
@@ -6263,10 +6292,10 @@
         <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
@@ -6274,10 +6303,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6288,7 +6317,7 @@
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -6300,13 +6329,13 @@
         <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6333,13 +6362,13 @@
         <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>74</v>
@@ -6357,13 +6386,13 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>74</v>
@@ -6372,12 +6401,121 @@
         <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>74</v>
+        <v>279</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T13:49:45+00:00</t>
+    <t>2023-04-06T08:19:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T08:19:53+00:00</t>
+    <t>2023-04-06T10:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
